--- a/BEYAZ (TRY).xlsx
+++ b/BEYAZ (TRY).xlsx
@@ -5142,6 +5142,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>29033275</v>
+      </c>
       <c r="C108">
         <v>2110416.371895523</v>
       </c>
